--- a/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_02.xlsx
+++ b/testdata/Smoke_WEB_MED_19CVS_NEWREPORT_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247E433-F972-45B9-9F41-003C518A040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF33B0-B3E0-44E3-8FDB-A0EC1C4B7DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="800" windowWidth="16140" windowHeight="9560" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -1308,10 +1308,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:CE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="BD1" sqref="BD1"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
